--- a/dust_test_data.xlsx
+++ b/dust_test_data.xlsx
@@ -515,15 +515,13 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.手順１Ａ
-2.手順２Ａ
-3.手順３Ａ
+          <t xml:space="preserve">1.前提１Ａ
 </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">・結果１Ａ
+          <t xml:space="preserve">・前提１Ａ
 </t>
         </is>
       </c>
@@ -541,15 +539,13 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.手順１Ａ
-2.手順２Ａ
-3.手順３Ｂ
+          <t xml:space="preserve">1.前提１Ａ
 </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">・結果１Ａ
+          <t xml:space="preserve">・前提１Ａ
 </t>
         </is>
       </c>
@@ -568,16 +564,15 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.手順１Ａ
-2.手順２Ｂ
-3.手順３Ａ
+          <t xml:space="preserve">1.前提１Ａ
+2.前提２Ａ
 </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">・結果１Ａ
-・結果２Ａ
+          <t xml:space="preserve">・前提１Ａ
+・前提２Ａ
 </t>
         </is>
       </c>
@@ -596,16 +591,15 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.手順１Ａ
-2.手順２Ｂ
-3.手順３Ｂ
+          <t xml:space="preserve">1.前提１Ａ
+2.前提２Ａ
 </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">・結果１Ａ
-・結果２Ｂ
+          <t xml:space="preserve">・前提１Ａ
+・前提２Ａ
 </t>
         </is>
       </c>
@@ -623,15 +617,13 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.手順１Ａ
-2.手順２Ａ
-3.手順３Ａ
+          <t xml:space="preserve">1.前提１Ｂ
 </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">・結果１Ａ
+          <t xml:space="preserve">・前提１Ｂ
 </t>
         </is>
       </c>
@@ -649,15 +641,13 @@
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.手順１Ａ
-2.手順２Ａ
-3.手順３Ｂ
+          <t xml:space="preserve">1.前提１Ｂ
 </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">・結果１Ａ
+          <t xml:space="preserve">・前提１Ｂ
 </t>
         </is>
       </c>
@@ -676,16 +666,15 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.手順１Ａ
-2.手順２Ｂ
-3.手順３Ａ
+          <t xml:space="preserve">1.前提１Ｂ
+2.前提２Ａ
 </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">・結果１Ａ
-・結果２Ａ
+          <t xml:space="preserve">・前提１Ｂ
+・前提２Ａ
 </t>
         </is>
       </c>
@@ -698,22 +687,21 @@
       <c r="C10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">・前提１Ｂ
-・前提２Ａ
+・前提２Ｂ
 </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.手順１Ａ
-2.手順２Ｂ
-3.手順３Ｂ
+          <t xml:space="preserve">1.前提１Ｂ
+2.前提２Ｂ
 </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">・結果１Ａ
-・結果２Ｂ
+          <t xml:space="preserve">・前提１Ｂ
+・前提２Ｂ
 </t>
         </is>
       </c>
@@ -732,17 +720,15 @@
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.手順１Ａ
-2.手順２Ａ
-3.手順３Ａ
+          <t xml:space="preserve">1.前提１Ｂ
+2.前提２Ｂ
 </t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">・結果１Ｂ
-・結果２Ａ
-・結果３Ａ
+          <t xml:space="preserve">・前提１Ｂ
+・前提２Ｂ
 </t>
         </is>
       </c>
@@ -752,59 +738,18 @@
         <f>ROW()-2</f>
         <v/>
       </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">・前提１Ｂ
-・前提２Ｂ
-</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.手順１Ａ
-2.手順２Ａ
-3.手順３Ｂ
-</t>
-        </is>
-      </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">・結果１Ｂ
-・結果２Ｂ
-・結果３Ａ
-</t>
-        </is>
-      </c>
+      <c r="C12" s="1" t="n"/>
+      <c r="D12" s="1" t="n"/>
+      <c r="E12" s="1" t="n"/>
     </row>
     <row r="13">
       <c r="B13" s="1">
         <f>ROW()-2</f>
         <v/>
       </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">・前提１Ｂ
-・前提２Ｂ
-・前提３Ａ
-</t>
-        </is>
-      </c>
-      <c r="D13" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.手順１Ａ
-2.手順２Ｂ
-3.手順３Ａ
-</t>
-        </is>
-      </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">・結果１Ｂ
-・結果２Ａ
-・結果３Ａ
-</t>
-        </is>
-      </c>
+      <c r="C13" s="1" t="n"/>
+      <c r="D13" s="1" t="n"/>
+      <c r="E13" s="1" t="n"/>
     </row>
     <row r="14">
       <c r="B14" s="1">
